--- a/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
+++ b/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
@@ -20,7 +20,7 @@
     <t>AT32F415CCT7_WorkBench</t>
   </si>
   <si>
-    <t>lto-llvm-da5681.o</t>
+    <t>lto-llvm-ef5861.o</t>
   </si>
   <si>
     <t>startup_at32f415.o</t>
@@ -249,7 +249,7 @@
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-da5681.o</c:v>
+                  <c:v>lto-llvm-ef5861.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>startup_at32f415.o</c:v>
@@ -267,10 +267,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>90.06885528564453</c:v>
+                  <c:v>90.03018188476563</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.93114185333252</c:v>
+                  <c:v>9.969818115234375</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -344,7 +344,7 @@
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-da5681.o</c:v>
+                  <c:v>lto-llvm-ef5861.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mf_w.l</c:v>
@@ -464,112 +464,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>95.55086517333984</c:v>
+                  <c:v>95.54550933837891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.642787456512451</c:v>
+                  <c:v>1.644766092300415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3983710110187531</c:v>
+                  <c:v>0.398850828409195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36878901720047</c:v>
+                  <c:v>0.3692331910133362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3293463289737701</c:v>
+                  <c:v>0.3297430276870728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2189068496227264</c:v>
+                  <c:v>0.2191705107688904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1834084391593933</c:v>
+                  <c:v>0.1836293488740921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.173547774553299</c:v>
+                  <c:v>0.1737567931413651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.122272290289402</c:v>
+                  <c:v>0.1224195659160614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1084673553705216</c:v>
+                  <c:v>0.1085980013012886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09860669076442719</c:v>
+                  <c:v>0.09872545301914215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09663455188274384</c:v>
+                  <c:v>0.09675094485282898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.061136145144701</c:v>
+                  <c:v>0.0612097829580307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05521974340081215</c:v>
+                  <c:v>0.05528625473380089</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04930334538221359</c:v>
+                  <c:v>0.04936272650957108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.04733121022582054</c:v>
+                  <c:v>0.0473882183432579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03944267332553864</c:v>
+                  <c:v>0.03949018195271492</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03944267332553864</c:v>
+                  <c:v>0.03949018195271492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03747054189443588</c:v>
+                  <c:v>0.03751567378640175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03549840673804283</c:v>
+                  <c:v>0.03554116189479828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03549840673804283</c:v>
+                  <c:v>0.03554116189479828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.03155414015054703</c:v>
+                  <c:v>0.03159214556217194</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02958200685679913</c:v>
+                  <c:v>0.02961763553321362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02958200685679913</c:v>
+                  <c:v>0.02961763553321362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02760987170040608</c:v>
+                  <c:v>0.02764312736690044</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01774920336902142</c:v>
+                  <c:v>0.01777058094739914</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.009860668331384659</c:v>
+                  <c:v>0.00987254548817873</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.007888535037636757</c:v>
+                  <c:v>0.007898036390542984</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.007888535037636757</c:v>
+                  <c:v>0.007898036390542984</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.003944267518818378</c:v>
+                  <c:v>0.003949018195271492</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.003944267518818378</c:v>
+                  <c:v>0.003949018195271492</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>90.06885528564453</v>
+        <v>90.03018188476563</v>
       </c>
       <c r="C3" s="1">
-        <v>9287</v>
+        <v>9247</v>
       </c>
       <c r="D3" s="1">
-        <v>96901</v>
+        <v>96779</v>
       </c>
       <c r="E3" s="1">
-        <v>45900</v>
+        <v>45778</v>
       </c>
       <c r="F3" s="1">
         <v>50830</v>
@@ -1057,7 +1057,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="1">
-        <v>9116</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>9.93114185333252</v>
+        <v>9.969818115234375</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -1175,16 +1175,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>95.55086517333984</v>
+        <v>95.54550933837891</v>
       </c>
       <c r="C3" s="1">
-        <v>96901</v>
+        <v>96779</v>
       </c>
       <c r="D3" s="1">
-        <v>9287</v>
+        <v>9247</v>
       </c>
       <c r="E3" s="1">
-        <v>45900</v>
+        <v>45778</v>
       </c>
       <c r="F3" s="1">
         <v>50830</v>
@@ -1193,7 +1193,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="1">
-        <v>9116</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.642787456512451</v>
+        <v>1.644766092300415</v>
       </c>
       <c r="C4" s="1">
         <v>1666</v>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3983710110187531</v>
+        <v>0.398850828409195</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.36878901720047</v>
+        <v>0.3692331910133362</v>
       </c>
       <c r="C6" s="1">
         <v>374</v>
@@ -1279,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.3293463289737701</v>
+        <v>0.3297430276870728</v>
       </c>
       <c r="C7" s="1">
         <v>334</v>
@@ -1305,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2189068496227264</v>
+        <v>0.2191705107688904</v>
       </c>
       <c r="C8" s="1">
         <v>222</v>
@@ -1331,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.1834084391593933</v>
+        <v>0.1836293488740921</v>
       </c>
       <c r="C9" s="1">
         <v>186</v>
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.173547774553299</v>
+        <v>0.1737567931413651</v>
       </c>
       <c r="C10" s="1">
         <v>176</v>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.122272290289402</v>
+        <v>0.1224195659160614</v>
       </c>
       <c r="C11" s="1">
         <v>124</v>
@@ -1409,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1084673553705216</v>
+        <v>0.1085980013012886</v>
       </c>
       <c r="C12" s="1">
         <v>110</v>
@@ -1435,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.09860669076442719</v>
+        <v>0.09872545301914215</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.09663455188274384</v>
+        <v>0.09675094485282898</v>
       </c>
       <c r="C14" s="1">
         <v>98</v>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.061136145144701</v>
+        <v>0.0612097829580307</v>
       </c>
       <c r="C15" s="1">
         <v>62</v>
@@ -1513,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.05521974340081215</v>
+        <v>0.05528625473380089</v>
       </c>
       <c r="C16" s="1">
         <v>56</v>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.04930334538221359</v>
+        <v>0.04936272650957108</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.04733121022582054</v>
+        <v>0.0473882183432579</v>
       </c>
       <c r="C18" s="1">
         <v>48</v>
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03944267332553864</v>
+        <v>0.03949018195271492</v>
       </c>
       <c r="C19" s="1">
         <v>40</v>
@@ -1617,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.03944267332553864</v>
+        <v>0.03949018195271492</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
@@ -1643,7 +1643,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.03747054189443588</v>
+        <v>0.03751567378640175</v>
       </c>
       <c r="C21" s="1">
         <v>38</v>
@@ -1669,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.03549840673804283</v>
+        <v>0.03554116189479828</v>
       </c>
       <c r="C22" s="1">
         <v>36</v>
@@ -1695,7 +1695,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.03549840673804283</v>
+        <v>0.03554116189479828</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -1721,7 +1721,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.03155414015054703</v>
+        <v>0.03159214556217194</v>
       </c>
       <c r="C24" s="1">
         <v>32</v>
@@ -1747,7 +1747,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.02958200685679913</v>
+        <v>0.02961763553321362</v>
       </c>
       <c r="C25" s="1">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.02958200685679913</v>
+        <v>0.02961763553321362</v>
       </c>
       <c r="C26" s="1">
         <v>30</v>
@@ -1799,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C27" s="1">
         <v>28</v>
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1877,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1903,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
@@ -1929,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.02760987170040608</v>
+        <v>0.02764312736690044</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
@@ -1955,7 +1955,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.01774920336902142</v>
+        <v>0.01777058094739914</v>
       </c>
       <c r="C33" s="1">
         <v>18</v>
@@ -1981,7 +1981,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.009860668331384659</v>
+        <v>0.00987254548817873</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.007888535037636757</v>
+        <v>0.007898036390542984</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.007888535037636757</v>
+        <v>0.007898036390542984</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
@@ -2059,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.003944267518818378</v>
+        <v>0.003949018195271492</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>0.003944267518818378</v>
+        <v>0.003949018195271492</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>

--- a/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
+++ b/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>AT32F415CCT7_WorkBench</t>
   </si>
   <si>
-    <t>lto-llvm-ef5861.o</t>
+    <t>lto-llvm-0e30cf.o</t>
   </si>
   <si>
     <t>startup_at32f415.o</t>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>systick_wrapper_gnu.o</t>
-  </si>
-  <si>
-    <t>fflti.o</t>
   </si>
   <si>
     <t>ffltui.o</t>
@@ -245,16 +242,16 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$39</c:f>
+              <c:f>ram_percent!$A$3:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-ef5861.o</c:v>
+                  <c:v>lto-llvm-0e30cf.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>startup_at32f415.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="35">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -262,17 +259,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$39</c:f>
+              <c:f>ram_percent!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>90.03018188476563</c:v>
+                  <c:v>89.96669006347656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.969818115234375</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                  <c:v>10.0333137512207</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -340,11 +337,11 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$39</c:f>
+              <c:f>flash_percent!$A$3:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-ef5861.o</c:v>
+                  <c:v>lto-llvm-0e30cf.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mf_w.l</c:v>
@@ -434,24 +431,21 @@
                   <c:v>systick_wrapper_gnu.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>fflti.o</c:v>
+                  <c:v>ffltui.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>ffltui.o</c:v>
+                  <c:v>entry9a.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>entry9a.o</c:v>
+                  <c:v>entry2.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>entry2.o</c:v>
+                  <c:v>entry8a.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>entry8a.o</c:v>
+                  <c:v>entry5.o</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>entry5.o</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -459,119 +453,116 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$39</c:f>
+              <c:f>flash_percent!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>95.54550933837891</c:v>
+                  <c:v>94.11687469482422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.644766092300415</c:v>
+                  <c:v>2.166084051132202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.398850828409195</c:v>
+                  <c:v>0.5310060381889343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3692331910133362</c:v>
+                  <c:v>0.4915748834609985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3297430276870728</c:v>
+                  <c:v>0.4390000402927399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2191705107688904</c:v>
+                  <c:v>0.2917904257774353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1836293488740921</c:v>
+                  <c:v>0.2444730699062347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1737567931413651</c:v>
+                  <c:v>0.2313293516635895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1224195659160614</c:v>
+                  <c:v>0.1629820466041565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1085980013012886</c:v>
+                  <c:v>0.1445808410644531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09872545301914215</c:v>
+                  <c:v>0.1314371377229691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09675094485282898</c:v>
+                  <c:v>0.12880839407444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0612097829580307</c:v>
+                  <c:v>0.08149102330207825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05528625473380089</c:v>
+                  <c:v>0.07360479235649109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04936272650957108</c:v>
+                  <c:v>0.06571856886148453</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0473882183432579</c:v>
+                  <c:v>0.06308982521295548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03949018195271492</c:v>
+                  <c:v>0.05257485434412956</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03949018195271492</c:v>
+                  <c:v>0.05257485434412956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03751567378640175</c:v>
+                  <c:v>0.04994611069560051</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03554116189479828</c:v>
+                  <c:v>0.04731736704707146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03554116189479828</c:v>
+                  <c:v>0.04731736704707146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.03159214556217194</c:v>
+                  <c:v>0.04205988347530365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02961763553321362</c:v>
+                  <c:v>0.0394311398267746</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02961763553321362</c:v>
+                  <c:v>0.0394311398267746</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02764312736690044</c:v>
+                  <c:v>0.03680239617824554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01777058094739914</c:v>
+                  <c:v>0.01314371358603239</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00987254548817873</c:v>
+                  <c:v>0.01051497086882591</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.007898036390542984</c:v>
+                  <c:v>0.01051497086882591</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.007898036390542984</c:v>
+                  <c:v>0.005257485434412956</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.003949018195271492</c:v>
+                  <c:v>0.005257485434412956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.003949018195271492</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -676,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H39" totalsRowCount="1">
-  <autoFilter ref="A2:H38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H38" totalsRowCount="1">
+  <autoFilter ref="A2:H37"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -693,8 +684,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H39" totalsRowCount="1">
-  <autoFilter ref="A2:H38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H38" totalsRowCount="1">
+  <autoFilter ref="A2:H37"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -994,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,28 +1001,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1039,25 +1030,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>90.03018188476563</v>
+        <v>89.96669006347656</v>
       </c>
       <c r="C3" s="1">
-        <v>9247</v>
+        <v>9182</v>
       </c>
       <c r="D3" s="1">
-        <v>96779</v>
+        <v>71606</v>
       </c>
       <c r="E3" s="1">
-        <v>45778</v>
+        <v>20392</v>
       </c>
       <c r="F3" s="1">
-        <v>50830</v>
+        <v>51013</v>
       </c>
       <c r="G3" s="1">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="H3" s="1">
-        <v>9076</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1065,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>9.969818115234375</v>
+        <v>10.0333137512207</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -1086,35 +1077,35 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="C38">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D38">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E38">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F38">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G38">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="H38">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1130,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,28 +1137,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1175,25 +1166,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>95.54550933837891</v>
+        <v>94.11687469482422</v>
       </c>
       <c r="C3" s="1">
-        <v>96779</v>
+        <v>71606</v>
       </c>
       <c r="D3" s="1">
-        <v>9247</v>
+        <v>9182</v>
       </c>
       <c r="E3" s="1">
-        <v>45778</v>
+        <v>20392</v>
       </c>
       <c r="F3" s="1">
-        <v>50830</v>
+        <v>51013</v>
       </c>
       <c r="G3" s="1">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="H3" s="1">
-        <v>9076</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1201,16 +1192,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.644766092300415</v>
+        <v>2.166084051132202</v>
       </c>
       <c r="C4" s="1">
-        <v>1666</v>
+        <v>1648</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1666</v>
+        <v>1648</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1227,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.398850828409195</v>
+        <v>0.5310060381889343</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -1253,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.3692331910133362</v>
+        <v>0.4915748834609985</v>
       </c>
       <c r="C6" s="1">
         <v>374</v>
@@ -1279,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.3297430276870728</v>
+        <v>0.4390000402927399</v>
       </c>
       <c r="C7" s="1">
         <v>334</v>
@@ -1305,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2191705107688904</v>
+        <v>0.2917904257774353</v>
       </c>
       <c r="C8" s="1">
         <v>222</v>
@@ -1331,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.1836293488740921</v>
+        <v>0.2444730699062347</v>
       </c>
       <c r="C9" s="1">
         <v>186</v>
@@ -1357,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.1737567931413651</v>
+        <v>0.2313293516635895</v>
       </c>
       <c r="C10" s="1">
         <v>176</v>
@@ -1383,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1224195659160614</v>
+        <v>0.1629820466041565</v>
       </c>
       <c r="C11" s="1">
         <v>124</v>
@@ -1409,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1085980013012886</v>
+        <v>0.1445808410644531</v>
       </c>
       <c r="C12" s="1">
         <v>110</v>
@@ -1435,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.09872545301914215</v>
+        <v>0.1314371377229691</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -1461,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.09675094485282898</v>
+        <v>0.12880839407444</v>
       </c>
       <c r="C14" s="1">
         <v>98</v>
@@ -1487,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.0612097829580307</v>
+        <v>0.08149102330207825</v>
       </c>
       <c r="C15" s="1">
         <v>62</v>
@@ -1513,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.05528625473380089</v>
+        <v>0.07360479235649109</v>
       </c>
       <c r="C16" s="1">
         <v>56</v>
@@ -1539,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.04936272650957108</v>
+        <v>0.06571856886148453</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -1565,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.0473882183432579</v>
+        <v>0.06308982521295548</v>
       </c>
       <c r="C18" s="1">
         <v>48</v>
@@ -1591,7 +1582,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.03949018195271492</v>
+        <v>0.05257485434412956</v>
       </c>
       <c r="C19" s="1">
         <v>40</v>
@@ -1617,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.03949018195271492</v>
+        <v>0.05257485434412956</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
@@ -1643,7 +1634,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.03751567378640175</v>
+        <v>0.04994611069560051</v>
       </c>
       <c r="C21" s="1">
         <v>38</v>
@@ -1669,7 +1660,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.03554116189479828</v>
+        <v>0.04731736704707146</v>
       </c>
       <c r="C22" s="1">
         <v>36</v>
@@ -1695,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.03554116189479828</v>
+        <v>0.04731736704707146</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -1721,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.03159214556217194</v>
+        <v>0.04205988347530365</v>
       </c>
       <c r="C24" s="1">
         <v>32</v>
@@ -1747,7 +1738,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.02961763553321362</v>
+        <v>0.0394311398267746</v>
       </c>
       <c r="C25" s="1">
         <v>30</v>
@@ -1773,7 +1764,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.02961763553321362</v>
+        <v>0.0394311398267746</v>
       </c>
       <c r="C26" s="1">
         <v>30</v>
@@ -1799,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C27" s="1">
         <v>28</v>
@@ -1825,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -1851,7 +1842,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1877,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1903,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
@@ -1929,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.02764312736690044</v>
+        <v>0.03680239617824554</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
@@ -1955,16 +1946,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.01777058094739914</v>
+        <v>0.01314371358603239</v>
       </c>
       <c r="C33" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1981,16 +1972,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.00987254548817873</v>
+        <v>0.01051497086882591</v>
       </c>
       <c r="C34" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2007,7 +1998,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.007898036390542984</v>
+        <v>0.01051497086882591</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
@@ -2033,16 +2024,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.007898036390542984</v>
+        <v>0.005257485434412956</v>
       </c>
       <c r="C36" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2059,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.003949018195271492</v>
+        <v>0.005257485434412956</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -2081,60 +2072,34 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.003949018195271492</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="C38">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D38">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E38">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F38">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G38">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="H38">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
+++ b/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>AT32F415CCT7_WorkBench</t>
   </si>
   <si>
-    <t>lto-llvm-0e30cf.o</t>
+    <t>lto-llvm-69fb86.o</t>
   </si>
   <si>
     <t>startup_at32f415.o</t>
@@ -35,6 +35,9 @@
     <t>dadd.o</t>
   </si>
   <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
     <t>ddiv.o</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>systick_wrapper_gnu.o</t>
+  </si>
+  <si>
+    <t>dfltui.o</t>
   </si>
   <si>
     <t>ffltui.o</t>
@@ -242,16 +248,16 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$38</c:f>
+              <c:f>ram_percent!$A$3:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-0e30cf.o</c:v>
+                  <c:v>lto-llvm-69fb86.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>startup_at32f415.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -259,17 +265,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$38</c:f>
+              <c:f>ram_percent!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>89.96669006347656</c:v>
+                  <c:v>89.98239135742188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0333137512207</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                  <c:v>10.01760864257813</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -337,11 +343,11 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$38</c:f>
+              <c:f>flash_percent!$A$3:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-0e30cf.o</c:v>
+                  <c:v>lto-llvm-69fb86.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mf_w.l</c:v>
@@ -356,96 +362,102 @@
                   <c:v>dadd.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>dmul.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>fadd.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>fdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fmul.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>dfixi.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>ffixi.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>ffixui.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>cpp_init.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>llsshr.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>llushr.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>llshl.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>fcmplt.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>fcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>fcmpgt.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>fcmpge.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>fcmpeq.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>systick_wrapper_gnu.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
+                  <c:v>dfltui.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>ffltui.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>entry8a.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -453,116 +465,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$38</c:f>
+              <c:f>flash_percent!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>94.11687469482422</c:v>
+                  <c:v>93.59761810302734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.166084051132202</c:v>
+                  <c:v>2.443285465240479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5310060381889343</c:v>
+                  <c:v>0.5189733505249023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4915748834609985</c:v>
+                  <c:v>0.4804357290267944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4390000402927399</c:v>
+                  <c:v>0.4290522336959839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2917904257774353</c:v>
+                  <c:v>0.292885959148407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2444730699062347</c:v>
+                  <c:v>0.2851784229278565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2313293516635895</c:v>
+                  <c:v>0.2389332801103592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1629820466041565</c:v>
+                  <c:v>0.2260874062776566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1445808410644531</c:v>
+                  <c:v>0.1592888534069061</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1314371377229691</c:v>
+                  <c:v>0.1413046270608902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12880839407444</c:v>
+                  <c:v>0.1284587532281876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08149102330207825</c:v>
+                  <c:v>0.1258895695209503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07360479235649109</c:v>
+                  <c:v>0.07964442670345306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.06571856886148453</c:v>
+                  <c:v>0.07193689793348312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.06308982521295548</c:v>
+                  <c:v>0.06422937661409378</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05257485434412956</c:v>
+                  <c:v>0.06166020035743713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05257485434412956</c:v>
+                  <c:v>0.05138349905610085</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.04994611069560051</c:v>
+                  <c:v>0.05138349905610085</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04731736704707146</c:v>
+                  <c:v>0.0488143265247345</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04731736704707146</c:v>
+                  <c:v>0.04624515026807785</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04205988347530365</c:v>
+                  <c:v>0.04624515026807785</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0394311398267746</c:v>
+                  <c:v>0.04110680148005486</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0394311398267746</c:v>
+                  <c:v>0.03853762522339821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03853762522339821</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.03680239617824554</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01314371358603239</c:v>
+                  <c:v>0.03596844896674156</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.01051497086882591</c:v>
+                  <c:v>0.03339927643537521</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.01051497086882591</c:v>
+                  <c:v>0.01284587476402521</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.005257485434412956</c:v>
+                  <c:v>0.01027670037001371</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.005257485434412956</c:v>
+                  <c:v>0.01027670037001371</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0.005138350185006857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.005138350185006857</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -667,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H38" totalsRowCount="1">
-  <autoFilter ref="A2:H37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H40" totalsRowCount="1">
+  <autoFilter ref="A2:H39"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -684,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H38" totalsRowCount="1">
-  <autoFilter ref="A2:H37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H40" totalsRowCount="1">
+  <autoFilter ref="A2:H39"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -985,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1001,28 +1019,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1030,25 +1048,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>89.96669006347656</v>
+        <v>89.98239135742188</v>
       </c>
       <c r="C3" s="1">
-        <v>9182</v>
+        <v>9198</v>
       </c>
       <c r="D3" s="1">
-        <v>71606</v>
+        <v>72862</v>
       </c>
       <c r="E3" s="1">
-        <v>20392</v>
+        <v>21176</v>
       </c>
       <c r="F3" s="1">
-        <v>51013</v>
+        <v>51485</v>
       </c>
       <c r="G3" s="1">
         <v>201</v>
       </c>
       <c r="H3" s="1">
-        <v>8981</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1056,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10.0333137512207</v>
+        <v>10.01760864257813</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -1077,35 +1095,35 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1121,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,28 +1155,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1166,25 +1184,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>94.11687469482422</v>
+        <v>93.59761810302734</v>
       </c>
       <c r="C3" s="1">
-        <v>71606</v>
+        <v>72862</v>
       </c>
       <c r="D3" s="1">
-        <v>9182</v>
+        <v>9198</v>
       </c>
       <c r="E3" s="1">
-        <v>20392</v>
+        <v>21176</v>
       </c>
       <c r="F3" s="1">
-        <v>51013</v>
+        <v>51485</v>
       </c>
       <c r="G3" s="1">
         <v>201</v>
       </c>
       <c r="H3" s="1">
-        <v>8981</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1192,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.166084051132202</v>
+        <v>2.443285465240479</v>
       </c>
       <c r="C4" s="1">
-        <v>1648</v>
+        <v>1902</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1648</v>
+        <v>1902</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1218,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5310060381889343</v>
+        <v>0.5189733505249023</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -1244,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.4915748834609985</v>
+        <v>0.4804357290267944</v>
       </c>
       <c r="C6" s="1">
         <v>374</v>
@@ -1270,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.4390000402927399</v>
+        <v>0.4290522336959839</v>
       </c>
       <c r="C7" s="1">
         <v>334</v>
@@ -1296,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2917904257774353</v>
+        <v>0.292885959148407</v>
       </c>
       <c r="C8" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1322,16 +1340,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2444730699062347</v>
+        <v>0.2851784229278565</v>
       </c>
       <c r="C9" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1348,16 +1366,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2313293516635895</v>
+        <v>0.2389332801103592</v>
       </c>
       <c r="C10" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1374,16 +1392,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1629820466041565</v>
+        <v>0.2260874062776566</v>
       </c>
       <c r="C11" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1400,16 +1418,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1445808410644531</v>
+        <v>0.1592888534069061</v>
       </c>
       <c r="C12" s="1">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1426,16 +1444,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1314371377229691</v>
+        <v>0.1413046270608902</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1452,16 +1470,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.12880839407444</v>
+        <v>0.1284587532281876</v>
       </c>
       <c r="C14" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1478,16 +1496,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08149102330207825</v>
+        <v>0.1258895695209503</v>
       </c>
       <c r="C15" s="1">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1504,16 +1522,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07360479235649109</v>
+        <v>0.07964442670345306</v>
       </c>
       <c r="C16" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1530,16 +1548,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.06571856886148453</v>
+        <v>0.07193689793348312</v>
       </c>
       <c r="C17" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1556,16 +1574,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.06308982521295548</v>
+        <v>0.06422937661409378</v>
       </c>
       <c r="C18" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1582,16 +1600,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.05257485434412956</v>
+        <v>0.06166020035743713</v>
       </c>
       <c r="C19" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1608,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05257485434412956</v>
+        <v>0.05138349905610085</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
@@ -1634,16 +1652,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.04994611069560051</v>
+        <v>0.05138349905610085</v>
       </c>
       <c r="C21" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1660,16 +1678,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.04731736704707146</v>
+        <v>0.0488143265247345</v>
       </c>
       <c r="C22" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1686,7 +1704,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.04731736704707146</v>
+        <v>0.04624515026807785</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -1712,16 +1730,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.04205988347530365</v>
+        <v>0.04624515026807785</v>
       </c>
       <c r="C24" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1738,16 +1756,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.0394311398267746</v>
+        <v>0.04110680148005486</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1764,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.0394311398267746</v>
+        <v>0.03853762522339821</v>
       </c>
       <c r="C26" s="1">
         <v>30</v>
@@ -1790,16 +1808,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03853762522339821</v>
       </c>
       <c r="C27" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1816,7 +1834,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -1842,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1868,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1894,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
@@ -1920,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.03680239617824554</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
@@ -1946,16 +1964,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.01314371358603239</v>
+        <v>0.03596844896674156</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1972,16 +1990,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.01051497086882591</v>
+        <v>0.03339927643537521</v>
       </c>
       <c r="C34" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1998,16 +2016,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.01051497086882591</v>
+        <v>0.01284587476402521</v>
       </c>
       <c r="C35" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2024,16 +2042,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.005257485434412956</v>
+        <v>0.01027670037001371</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2050,56 +2068,108 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.005257485434412956</v>
+        <v>0.01027670037001371</v>
       </c>
       <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.005138350185006857</v>
+      </c>
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="2">
+        <v>0.005138350185006857</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
+++ b/app/AT32F415CCT7_WorkBench/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
@@ -20,7 +20,7 @@
     <t>AT32F415CCT7_WorkBench</t>
   </si>
   <si>
-    <t>lto-llvm-69fb86.o</t>
+    <t>lto-llvm-fde826.o</t>
   </si>
   <si>
     <t>startup_at32f415.o</t>
@@ -252,7 +252,7 @@
               <c:strCache>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-69fb86.o</c:v>
+                  <c:v>lto-llvm-fde826.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>startup_at32f415.o</c:v>
@@ -347,7 +347,7 @@
               <c:strCache>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-69fb86.o</c:v>
+                  <c:v>lto-llvm-fde826.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mf_w.l</c:v>
@@ -470,115 +470,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>93.59761810302734</c:v>
+                  <c:v>93.63880157470703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.443285465240479</c:v>
+                  <c:v>2.427568674087524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5189733505249023</c:v>
+                  <c:v>0.5156349539756775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4804357290267944</c:v>
+                  <c:v>0.4773452579975128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4290522336959839</c:v>
+                  <c:v>0.4262922704219818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.292885959148407</c:v>
+                  <c:v>0.2910019159317017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2851784229278565</c:v>
+                  <c:v>0.2833439707756043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2389332801103592</c:v>
+                  <c:v>0.2373962998390198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2260874062776566</c:v>
+                  <c:v>0.224633052945137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1592888534069061</c:v>
+                  <c:v>0.1582642048597336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1413046270608902</c:v>
+                  <c:v>0.1403956562280655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1284587532281876</c:v>
+                  <c:v>0.1276324242353439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1258895695209503</c:v>
+                  <c:v>0.1250797659158707</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.07964442670345306</c:v>
+                  <c:v>0.07913210242986679</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.07193689793348312</c:v>
+                  <c:v>0.07147415727376938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.06422937661409378</c:v>
+                  <c:v>0.06381621211767197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06166020035743713</c:v>
+                  <c:v>0.0612635612487793</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05138349905610085</c:v>
+                  <c:v>0.05105296894907951</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.05138349905610085</c:v>
+                  <c:v>0.05105296894907951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0488143265247345</c:v>
+                  <c:v>0.04850031808018684</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04624515026807785</c:v>
+                  <c:v>0.04594767093658447</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04624515026807785</c:v>
+                  <c:v>0.04594767093658447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04110680148005486</c:v>
+                  <c:v>0.04084237292408943</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03853762522339821</c:v>
+                  <c:v>0.03828972578048706</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.03853762522339821</c:v>
+                  <c:v>0.03828972578048706</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.03596844896674156</c:v>
+                  <c:v>0.03573707863688469</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.03339927643537521</c:v>
+                  <c:v>0.03318442776799202</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.01284587476402521</c:v>
+                  <c:v>0.01276324223726988</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.01027670037001371</c:v>
+                  <c:v>0.01021059323102236</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.01027670037001371</c:v>
+                  <c:v>0.01021059323102236</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.005138350185006857</c:v>
+                  <c:v>0.005105296615511179</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.005138350185006857</c:v>
+                  <c:v>0.005105296615511179</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -1054,10 +1054,10 @@
         <v>9198</v>
       </c>
       <c r="D3" s="1">
-        <v>72862</v>
+        <v>73366</v>
       </c>
       <c r="E3" s="1">
-        <v>21176</v>
+        <v>21680</v>
       </c>
       <c r="F3" s="1">
         <v>51485</v>
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>93.59761810302734</v>
+        <v>93.63880157470703</v>
       </c>
       <c r="C3" s="1">
-        <v>72862</v>
+        <v>73366</v>
       </c>
       <c r="D3" s="1">
         <v>9198</v>
       </c>
       <c r="E3" s="1">
-        <v>21176</v>
+        <v>21680</v>
       </c>
       <c r="F3" s="1">
         <v>51485</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.443285465240479</v>
+        <v>2.427568674087524</v>
       </c>
       <c r="C4" s="1">
         <v>1902</v>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5189733505249023</v>
+        <v>0.5156349539756775</v>
       </c>
       <c r="C5" s="1">
         <v>404</v>
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.4804357290267944</v>
+        <v>0.4773452579975128</v>
       </c>
       <c r="C6" s="1">
         <v>374</v>
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.4290522336959839</v>
+        <v>0.4262922704219818</v>
       </c>
       <c r="C7" s="1">
         <v>334</v>
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.292885959148407</v>
+        <v>0.2910019159317017</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2851784229278565</v>
+        <v>0.2833439707756043</v>
       </c>
       <c r="C9" s="1">
         <v>222</v>
@@ -1366,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2389332801103592</v>
+        <v>0.2373962998390198</v>
       </c>
       <c r="C10" s="1">
         <v>186</v>
@@ -1392,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2260874062776566</v>
+        <v>0.224633052945137</v>
       </c>
       <c r="C11" s="1">
         <v>176</v>
@@ -1418,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1592888534069061</v>
+        <v>0.1582642048597336</v>
       </c>
       <c r="C12" s="1">
         <v>124</v>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.1413046270608902</v>
+        <v>0.1403956562280655</v>
       </c>
       <c r="C13" s="1">
         <v>110</v>
@@ -1470,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.1284587532281876</v>
+        <v>0.1276324242353439</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1258895695209503</v>
+        <v>0.1250797659158707</v>
       </c>
       <c r="C15" s="1">
         <v>98</v>
@@ -1522,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.07964442670345306</v>
+        <v>0.07913210242986679</v>
       </c>
       <c r="C16" s="1">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.07193689793348312</v>
+        <v>0.07147415727376938</v>
       </c>
       <c r="C17" s="1">
         <v>56</v>
@@ -1574,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.06422937661409378</v>
+        <v>0.06381621211767197</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
@@ -1600,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06166020035743713</v>
+        <v>0.0612635612487793</v>
       </c>
       <c r="C19" s="1">
         <v>48</v>
@@ -1626,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05138349905610085</v>
+        <v>0.05105296894907951</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.05138349905610085</v>
+        <v>0.05105296894907951</v>
       </c>
       <c r="C21" s="1">
         <v>40</v>
@@ -1678,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.0488143265247345</v>
+        <v>0.04850031808018684</v>
       </c>
       <c r="C22" s="1">
         <v>38</v>
@@ -1704,7 +1704,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.04624515026807785</v>
+        <v>0.04594767093658447</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -1730,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.04624515026807785</v>
+        <v>0.04594767093658447</v>
       </c>
       <c r="C24" s="1">
         <v>36</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.04110680148005486</v>
+        <v>0.04084237292408943</v>
       </c>
       <c r="C25" s="1">
         <v>32</v>
@@ -1782,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.03853762522339821</v>
+        <v>0.03828972578048706</v>
       </c>
       <c r="C26" s="1">
         <v>30</v>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.03853762522339821</v>
+        <v>0.03828972578048706</v>
       </c>
       <c r="C27" s="1">
         <v>30</v>
@@ -1834,7 +1834,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -1860,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1912,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
@@ -1938,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
@@ -1964,7 +1964,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.03596844896674156</v>
+        <v>0.03573707863688469</v>
       </c>
       <c r="C33" s="1">
         <v>28</v>
@@ -1990,7 +1990,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.03339927643537521</v>
+        <v>0.03318442776799202</v>
       </c>
       <c r="C34" s="1">
         <v>26</v>
@@ -2016,7 +2016,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.01284587476402521</v>
+        <v>0.01276324223726988</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.01027670037001371</v>
+        <v>0.01021059323102236</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
@@ -2068,7 +2068,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.01027670037001371</v>
+        <v>0.01021059323102236</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
@@ -2094,7 +2094,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>0.005138350185006857</v>
+        <v>0.005105296615511179</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -2120,7 +2120,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>0.005138350185006857</v>
+        <v>0.005105296615511179</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
